--- a/ChatGPT API parameters selection.xlsx
+++ b/ChatGPT API parameters selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ahtsham\Projects\Online data\UMAP_ChatGPT_CRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187903BF-F658-46C3-B0CD-AE79533C9ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4921B9B3-DC9B-4BAB-B5D4-7D55A108DDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31280855-44A4-46F2-92A3-834E00477B95}"/>
   </bookViews>
@@ -461,14 +461,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28D6407-1D49-41E2-88F6-14D9D92B8E77}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,14 +803,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -818,24 +818,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -849,14 +849,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1467,14 +1467,14 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1503,382 +1503,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="22" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="22" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="22" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="22" t="s">
         <v>93</v>
       </c>
     </row>
